--- a/StructureDefinition-profile-CodeSystem.xlsx
+++ b/StructureDefinition-profile-CodeSystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="481">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6447484-06:00</t>
+    <t>2026-02-09T22:05:43.0266891-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -416,38 +416,259 @@
     <t>CodeSystem.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which CodeSystem is more current.</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.versionAlgorithm[x]` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.copyrightLabel` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:approvalDate</t>
+  </si>
+  <si>
+    <t>approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.approvalDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.approvalDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.approvalDate` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:lastReviewDate</t>
+  </si>
+  <si>
+    <t>lastReviewDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.lastReviewDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.lastReviewDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.lastReviewDate` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:effectivePeriod</t>
+  </si>
+  <si>
+    <t>effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.effectivePeriod|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.effectivePeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The period during which the CodeSystem content was or is planned to be in active use.</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.effectivePeriod` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:topic</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.topic|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.topic from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Descriptions related to the content of the CodeSystem. Topics provide a high-level categorization as well as keywords for the CodeSystem that can be useful for filtering and searching.</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.topic` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:author</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.author|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.author from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individiual or organization primarily involved in the creation and maintenance of the CodeSystem.</t>
+  </si>
+  <si>
+    <t>Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `ContactDetail`:0..* -&gt; basic: `Reference(http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Organization)`:0..1).
+Element `CodeSystem.author` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:editor</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.editor|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.editor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization primarily responsible for internal coherence of the CodeSystem.</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.editor` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:reviewer</t>
+  </si>
+  <si>
+    <t>reviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.reviewer|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.reviewer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization asserted by the publisher to be primarily responsible for review of some aspect of the CodeSystem.</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.reviewer` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:endorser</t>
+  </si>
+  <si>
+    <t>endorser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.endorser|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.endorser from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization asserted by the publisher to be responsible for officially endorsing the CodeSystem for use in some setting.</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.endorser` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:relatedArtifact</t>
+  </si>
+  <si>
+    <t>relatedArtifact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.relatedArtifact|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.relatedArtifact from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Related artifacts such as additional documentation, justification, dependencies, bibliographic references, and predecessor and successor artifacts.</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.relatedArtifact` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CodeSystem.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -944,6 +1165,9 @@
     <t>CodeSystem.filter.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -1012,17 +1236,10 @@
     <t>CodeSystem.filter.operator.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>CodeSystem.filter.operator.extension:operator</t>
+  </si>
+  <si>
+    <t>operator</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.filter.operator|0.0.1-snapshot-3}
@@ -1032,155 +1249,173 @@
     <t>Cross-version extension for CodeSystem.filter.operator from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
+    <t>Element `CodeSystem.filter.operator` is mapped to FHIR R4 element `CodeSystem.filter.operator`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.filter.operator.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>CodeSystem.filter.value</t>
+  </si>
+  <si>
+    <t>What to use for the value</t>
+  </si>
+  <si>
+    <t>A description of what the value for the filter should be.</t>
+  </si>
+  <si>
+    <t>CodeSystem.property</t>
+  </si>
+  <si>
+    <t>Additional information supplied about each concept</t>
+  </si>
+  <si>
+    <t>A property defines an additional slot through which additional information can be provided about a concept.</t>
+  </si>
+  <si>
+    <t>CodeSystem.property.id</t>
+  </si>
+  <si>
+    <t>CodeSystem.property.extension</t>
+  </si>
+  <si>
+    <t>CodeSystem.property.modifierExtension</t>
+  </si>
+  <si>
+    <t>CodeSystem.property.code</t>
+  </si>
+  <si>
+    <t>Identifies the property on the concepts, and when referred to in operations</t>
+  </si>
+  <si>
+    <t>A code that is used to identify the property. The code is used internally (in CodeSystem.concept.property.code) and also externally, such as in property filters.</t>
+  </si>
+  <si>
+    <t>CodeSystem.property.uri</t>
+  </si>
+  <si>
+    <t>Formal identifier for the property</t>
+  </si>
+  <si>
+    <t>Reference to the formal meaning of the property. One possible source of meaning is the [Concept Properties](http://hl7.org/fhir/R4/codesystem-concept-properties.html) code system.</t>
+  </si>
+  <si>
+    <t>CodeSystem.property.description</t>
+  </si>
+  <si>
+    <t>Why the property is defined, and/or what it conveys</t>
+  </si>
+  <si>
+    <t>A description of the property- why it is defined, and how its value might be used.</t>
+  </si>
+  <si>
+    <t>CodeSystem.property.type</t>
+  </si>
+  <si>
+    <t>code | Coding | string | integer | boolean | dateTime | decimal</t>
+  </si>
+  <si>
+    <t>The type of the property value. Properties of type "code" contain a code defined by the code system (e.g. a reference to another defined concept).</t>
+  </si>
+  <si>
+    <t>The type of a property value.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/concept-property-type|4.0.1</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept</t>
+  </si>
+  <si>
+    <t>Concepts in the code system</t>
+  </si>
+  <si>
+    <t>Concepts that are in the code system. The concept definitions are inherently hierarchical, but the definitions must be consulted to determine what the meanings of the hierarchical relationships are.</t>
+  </si>
+  <si>
+    <t>If this is empty, it means that the code system resource does not represent the content of the code system.</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.id</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.extension</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.modifierExtension</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.code</t>
+  </si>
+  <si>
+    <t>Code that identifies concept</t>
+  </si>
+  <si>
+    <t>A code - a text symbol - that uniquely identifies the concept within the code system.</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.display</t>
+  </si>
+  <si>
+    <t>Text to display to the user</t>
+  </si>
+  <si>
+    <t>A human readable string that is the recommended default way to present this concept to a user.</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.definition</t>
+  </si>
+  <si>
+    <t>Formal definition</t>
+  </si>
+  <si>
+    <t>The formal definition of the concept. The code system resource does not make formal definitions required, because of the prevalence of legacy systems. However, they are highly recommended, as without them there is no formal meaning associated with the concept.</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.designation</t>
+  </si>
+  <si>
+    <t>Additional representations for the concept</t>
+  </si>
+  <si>
+    <t>Additional representations for the concept - other languages, aliases, specialized purposes, used for particular purposes, etc.</t>
+  </si>
+  <si>
+    <t>Concepts have both a ```display``` and an array of ```designation```. The display is equivalent to a special designation with an implied ```designation.use``` of "primary code" and a language equal to the [Resource Language](http://hl7.org/fhir/R4/resource.html#language).</t>
+  </si>
+  <si>
+    <t>Many concept definition systems support multiple representations, in multiple languages, and for multiple purposes.</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.designation.id</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.designation.extension</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.designation.extension:additionalUse</t>
+  </si>
+  <si>
+    <t>additionalUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.concept.designation.additionalUse|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>CodeSystem.filter.operator.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
-    <t>CodeSystem.filter.value</t>
-  </si>
-  <si>
-    <t>What to use for the value</t>
-  </si>
-  <si>
-    <t>A description of what the value for the filter should be.</t>
-  </si>
-  <si>
-    <t>CodeSystem.property</t>
-  </si>
-  <si>
-    <t>Additional information supplied about each concept</t>
-  </si>
-  <si>
-    <t>A property defines an additional slot through which additional information can be provided about a concept.</t>
-  </si>
-  <si>
-    <t>CodeSystem.property.id</t>
-  </si>
-  <si>
-    <t>CodeSystem.property.extension</t>
-  </si>
-  <si>
-    <t>CodeSystem.property.modifierExtension</t>
-  </si>
-  <si>
-    <t>CodeSystem.property.code</t>
-  </si>
-  <si>
-    <t>Identifies the property on the concepts, and when referred to in operations</t>
-  </si>
-  <si>
-    <t>A code that is used to identify the property. The code is used internally (in CodeSystem.concept.property.code) and also externally, such as in property filters.</t>
-  </si>
-  <si>
-    <t>CodeSystem.property.uri</t>
-  </si>
-  <si>
-    <t>Formal identifier for the property</t>
-  </si>
-  <si>
-    <t>Reference to the formal meaning of the property. One possible source of meaning is the [Concept Properties](http://hl7.org/fhir/R4/codesystem-concept-properties.html) code system.</t>
-  </si>
-  <si>
-    <t>CodeSystem.property.description</t>
-  </si>
-  <si>
-    <t>Why the property is defined, and/or what it conveys</t>
-  </si>
-  <si>
-    <t>A description of the property- why it is defined, and how its value might be used.</t>
-  </si>
-  <si>
-    <t>CodeSystem.property.type</t>
-  </si>
-  <si>
-    <t>code | Coding | string | integer | boolean | dateTime | decimal</t>
-  </si>
-  <si>
-    <t>The type of the property value. Properties of type "code" contain a code defined by the code system (e.g. a reference to another defined concept).</t>
-  </si>
-  <si>
-    <t>The type of a property value.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/concept-property-type|4.0.1</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept</t>
-  </si>
-  <si>
-    <t>Concepts in the code system</t>
-  </si>
-  <si>
-    <t>Concepts that are in the code system. The concept definitions are inherently hierarchical, but the definitions must be consulted to determine what the meanings of the hierarchical relationships are.</t>
-  </si>
-  <si>
-    <t>If this is empty, it means that the code system resource does not represent the content of the code system.</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.id</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.extension</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.modifierExtension</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.code</t>
-  </si>
-  <si>
-    <t>Code that identifies concept</t>
-  </si>
-  <si>
-    <t>A code - a text symbol - that uniquely identifies the concept within the code system.</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.display</t>
-  </si>
-  <si>
-    <t>Text to display to the user</t>
-  </si>
-  <si>
-    <t>A human readable string that is the recommended default way to present this concept to a user.</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.definition</t>
-  </si>
-  <si>
-    <t>Formal definition</t>
-  </si>
-  <si>
-    <t>The formal definition of the concept. The code system resource does not make formal definitions required, because of the prevalence of legacy systems. However, they are highly recommended, as without them there is no formal meaning associated with the concept.</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.designation</t>
-  </si>
-  <si>
-    <t>Additional representations for the concept</t>
-  </si>
-  <si>
-    <t>Additional representations for the concept - other languages, aliases, specialized purposes, used for particular purposes, etc.</t>
-  </si>
-  <si>
-    <t>Concepts have both a ```display``` and an array of ```designation```. The display is equivalent to a special designation with an implied ```designation.use``` of "primary code" and a language equal to the [Resource Language](http://hl7.org/fhir/R4/resource.html#language).</t>
-  </si>
-  <si>
-    <t>Many concept definition systems support multiple representations, in multiple languages, and for multiple purposes.</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.designation.id</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.designation.extension</t>
+    <t>Cross-version extension for CodeSystem.concept.designation.additionalUse from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Additional codes that detail how this designation would be used, if there is more than one use.</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.concept.designation.additionalUse` is will have a context of CodeSystem.concept.designation based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t>CodeSystem.concept.designation.modifierExtension</t>
@@ -1582,7 +1817,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1591,9 +1826,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.72265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.51953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.72265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1601,7 +1836,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.90625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="106.33203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2557,7 +2792,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2576,17 +2811,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2623,16 +2856,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>135</v>
@@ -2650,7 +2881,7 @@
         <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2667,43 +2898,43 @@
         <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2751,7 +2982,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2760,13 +2991,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -2780,12 +3011,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2803,23 +3036,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2867,28 +3098,28 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2896,12 +3127,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2910,7 +3143,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2919,23 +3152,21 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2983,7 +3214,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2992,32 +3223,34 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3035,7 +3268,7 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>158</v>
@@ -3097,28 +3330,28 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3126,12 +3359,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3149,10 +3384,10 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>165</v>
@@ -3163,9 +3398,7 @@
       <c r="N14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3213,19 +3446,19 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3242,12 +3475,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3256,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3265,10 +3500,10 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>171</v>
@@ -3327,25 +3562,25 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3356,42 +3591,44 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3417,13 +3654,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3441,28 +3678,28 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3470,12 +3707,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3484,7 +3723,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3493,23 +3732,21 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3557,28 +3794,28 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3586,21 +3823,23 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="D18" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3609,19 +3848,19 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3671,28 +3910,28 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3700,12 +3939,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3714,7 +3955,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3723,23 +3964,21 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3787,28 +4026,28 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3816,12 +4055,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3839,19 +4080,19 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3901,7 +4142,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3910,16 +4151,16 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3930,44 +4171,46 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4015,25 +4258,25 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4044,10 +4287,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4058,7 +4301,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4070,19 +4313,19 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4131,13 +4374,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4149,10 +4392,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4160,10 +4403,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4186,18 +4429,20 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4221,13 +4466,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4245,7 +4490,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4263,21 +4508,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4297,19 +4542,19 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4359,7 +4604,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4377,25 +4622,25 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4411,22 +4656,22 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4475,7 +4720,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4484,7 +4729,7 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
@@ -4493,21 +4738,21 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4530,16 +4775,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4589,7 +4834,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4607,7 +4852,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4618,10 +4863,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4629,7 +4874,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -4638,22 +4883,22 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4679,13 +4924,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4703,10 +4948,10 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>86</v>
@@ -4721,10 +4966,10 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4732,10 +4977,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4758,18 +5003,20 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4793,13 +5040,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4817,7 +5064,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4835,10 +5082,10 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4846,14 +5093,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4872,16 +5119,16 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4931,7 +5178,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4949,10 +5196,10 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4986,7 +5233,7 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>269</v>
@@ -4997,7 +5244,9 @@
       <c r="N30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="O30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5063,10 +5312,10 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5074,10 +5323,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5085,10 +5334,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5100,15 +5349,17 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5133,37 +5384,37 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5175,7 +5426,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5186,14 +5437,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5209,19 +5460,19 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5271,7 +5522,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5286,10 +5537,10 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5300,10 +5551,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5314,7 +5565,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5326,18 +5577,20 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5385,13 +5638,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5403,7 +5656,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5414,10 +5667,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5440,16 +5693,16 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5475,13 +5728,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5499,7 +5752,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5517,7 +5770,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5528,10 +5781,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5554,15 +5807,17 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5611,7 +5866,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5623,38 +5878,38 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5666,18 +5921,20 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5725,75 +5982,73 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5841,22 +6096,22 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5870,10 +6125,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5881,7 +6136,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>86</v>
@@ -5896,15 +6151,17 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5953,10 +6210,10 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>86</v>
@@ -5982,10 +6239,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6008,15 +6265,17 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6041,13 +6300,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6065,7 +6324,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6094,21 +6353,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6120,15 +6379,17 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6153,13 +6414,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6177,13 +6438,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6206,10 +6467,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6229,18 +6490,20 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6289,7 +6552,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6301,7 +6564,7 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6318,10 +6581,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6332,7 +6595,7 @@
         <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6341,16 +6604,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6377,41 +6640,43 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AC42" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6428,10 +6693,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6439,10 +6704,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6451,18 +6716,20 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6511,19 +6778,19 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6540,10 +6807,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6563,18 +6830,20 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6623,7 +6892,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6635,7 +6904,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6652,10 +6921,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6663,10 +6932,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6678,15 +6947,17 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>158</v>
+        <v>357</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6735,13 +7006,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -6764,10 +7035,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6778,7 +7049,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6787,16 +7058,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6847,22 +7118,22 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -6876,21 +7147,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6902,15 +7173,17 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6959,22 +7232,22 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>295</v>
+        <v>369</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -6988,14 +7261,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>130</v>
+        <v>371</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7008,24 +7281,26 @@
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>132</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7073,7 +7348,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>299</v>
+        <v>374</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7088,7 +7363,7 @@
         <v>136</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>296</v>
+        <v>84</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7102,46 +7377,42 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>302</v>
+        <v>376</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7189,22 +7460,22 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7218,10 +7489,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7229,7 +7500,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>86</v>
@@ -7244,13 +7515,13 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7301,10 +7572,10 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>86</v>
@@ -7330,10 +7601,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7341,10 +7612,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7356,13 +7627,13 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7389,13 +7660,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7413,13 +7684,13 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
@@ -7442,10 +7713,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7465,16 +7736,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7525,7 +7796,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7537,7 +7808,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7554,10 +7825,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7568,7 +7839,7 @@
         <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7577,16 +7848,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>349</v>
+        <v>131</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>350</v>
+        <v>132</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7613,43 +7884,41 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7666,18 +7935,20 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -7692,16 +7963,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>288</v>
+        <v>392</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7751,7 +8022,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7760,10 +8031,10 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7780,10 +8051,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7806,13 +8077,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>293</v>
+        <v>396</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7863,7 +8134,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>295</v>
+        <v>397</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7878,7 +8149,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -7892,21 +8163,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -7915,20 +8186,18 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>132</v>
+        <v>399</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -7977,22 +8246,22 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8006,14 +8275,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8026,26 +8295,22 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>131</v>
+        <v>357</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>302</v>
+        <v>402</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8093,7 +8358,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>304</v>
+        <v>401</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8105,10 +8370,10 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8122,10 +8387,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8133,7 +8398,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>86</v>
@@ -8148,13 +8413,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8205,10 +8470,10 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>86</v>
@@ -8217,10 +8482,10 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8234,21 +8499,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8260,15 +8525,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8317,22 +8584,22 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8346,42 +8613,46 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8429,22 +8700,22 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8458,10 +8729,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8469,10 +8740,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8481,23 +8752,19 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>288</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8545,13 +8812,13 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
@@ -8574,10 +8841,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8597,16 +8864,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>293</v>
+        <v>411</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>294</v>
+        <v>412</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8657,7 +8924,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>295</v>
+        <v>410</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8669,10 +8936,10 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8686,21 +8953,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8709,20 +8976,18 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8771,22 +9036,22 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>299</v>
+        <v>413</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -8800,46 +9065,42 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>302</v>
+        <v>417</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -8863,13 +9124,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -8887,22 +9148,22 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>304</v>
+        <v>416</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -8916,10 +9177,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8930,7 +9191,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -8942,16 +9203,16 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>106</v>
+        <v>357</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8977,13 +9238,13 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>77</v>
@@ -9001,13 +9262,13 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
@@ -9030,10 +9291,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9056,17 +9317,15 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>382</v>
+        <v>227</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9091,13 +9350,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9115,7 +9374,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9127,10 +9386,10 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9144,21 +9403,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9170,15 +9429,17 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9227,22 +9488,22 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9256,14 +9517,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9276,22 +9537,26 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9339,7 +9604,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9351,10 +9616,10 @@
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9368,10 +9633,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9379,7 +9644,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>86</v>
@@ -9394,13 +9659,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>293</v>
+        <v>429</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>294</v>
+        <v>430</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9451,10 +9716,10 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>295</v>
+        <v>428</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>86</v>
@@ -9463,10 +9728,10 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9480,21 +9745,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -9506,17 +9771,15 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>132</v>
+        <v>432</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9565,22 +9828,22 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>299</v>
+        <v>431</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9594,46 +9857,42 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>302</v>
+        <v>435</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
       </c>
@@ -9681,22 +9940,22 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>304</v>
+        <v>434</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -9710,10 +9969,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9721,10 +9980,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -9736,16 +9995,20 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>106</v>
+        <v>357</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>77</v>
       </c>
@@ -9793,13 +10056,13 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
@@ -9822,10 +10085,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9833,7 +10096,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>86</v>
@@ -9848,13 +10111,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>401</v>
+        <v>227</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9905,10 +10168,10 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>86</v>
@@ -9917,10 +10180,10 @@
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -9934,10 +10197,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9960,13 +10223,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>405</v>
+        <v>131</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>406</v>
+        <v>132</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10005,19 +10268,17 @@
         <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10029,18 +10290,1380 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AK77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-CodeSystem.xlsx
+++ b/StructureDefinition-profile-CodeSystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0266891-06:00</t>
+    <t>2026-02-17T14:42:26.7604903-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,7 +456,7 @@
     <t>Indicates the mechanism used to compare versions to determine which CodeSystem is more current.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.versionAlgorithm[x]` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+    <t>Element `CodeSystem.versionAlgorithm[x]` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -479,7 +479,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `CodeSystem.copyrightLabel` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+    <t>Element `CodeSystem.copyrightLabel` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t>CodeSystem.extension:approvalDate</t>
@@ -498,7 +498,7 @@
     <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.approvalDate` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+    <t>Element `CodeSystem.approvalDate` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t>CodeSystem.extension:lastReviewDate</t>
@@ -517,7 +517,7 @@
     <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.lastReviewDate` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+    <t>Element `CodeSystem.lastReviewDate` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t>CodeSystem.extension:effectivePeriod</t>
@@ -536,7 +536,7 @@
     <t>The period during which the CodeSystem content was or is planned to be in active use.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.effectivePeriod` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+    <t>Element `CodeSystem.effectivePeriod` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t>CodeSystem.extension:topic</t>
@@ -555,7 +555,7 @@
     <t>Descriptions related to the content of the CodeSystem. Topics provide a high-level categorization as well as keywords for the CodeSystem that can be useful for filtering and searching.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.topic` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+    <t>Element `CodeSystem.topic` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t>CodeSystem.extension:author</t>
@@ -575,7 +575,7 @@
   </si>
   <si>
     <t>Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `ContactDetail`:0..* -&gt; basic: `Reference(http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Organization)`:0..1).
-Element `CodeSystem.author` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+Element `CodeSystem.author` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t>CodeSystem.extension:editor</t>
@@ -594,7 +594,7 @@
     <t>An individual or organization primarily responsible for internal coherence of the CodeSystem.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.editor` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+    <t>Element `CodeSystem.editor` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t>CodeSystem.extension:reviewer</t>
@@ -613,7 +613,7 @@
     <t>An individual or organization asserted by the publisher to be primarily responsible for review of some aspect of the CodeSystem.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.reviewer` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+    <t>Element `CodeSystem.reviewer` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t>CodeSystem.extension:endorser</t>
@@ -632,7 +632,7 @@
     <t>An individual or organization asserted by the publisher to be responsible for officially endorsing the CodeSystem for use in some setting.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.endorser` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+    <t>Element `CodeSystem.endorser` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t>CodeSystem.extension:relatedArtifact</t>
@@ -651,7 +651,7 @@
     <t>Related artifacts such as additional documentation, justification, dependencies, bibliographic references, and predecessor and successor artifacts.</t>
   </si>
   <si>
-    <t>Element `CodeSystem.relatedArtifact` is will have a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+    <t>Element `CodeSystem.relatedArtifact` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t>CodeSystem.modifierExtension</t>
@@ -1165,13 +1165,23 @@
     <t>CodeSystem.filter.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CodeSystem.filter.extension:filter</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.filter|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.filter from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.filter` has is mapped to FHIR R4 element `CodeSystem.filter`, but has no comparisons.</t>
   </si>
   <si>
     <t>CodeSystem.filter.modifierExtension</t>
@@ -1224,65 +1234,44 @@
     <t>http://hl7.org/fhir/ValueSet/filter-operator|4.0.1</t>
   </si>
   <si>
-    <t>CodeSystem.filter.operator.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>CodeSystem.filter.operator.extension</t>
-  </si>
-  <si>
-    <t>CodeSystem.filter.operator.extension:operator</t>
-  </si>
-  <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.filter.operator|0.0.1-snapshot-3}
+    <t>CodeSystem.filter.value</t>
+  </si>
+  <si>
+    <t>What to use for the value</t>
+  </si>
+  <si>
+    <t>A description of what the value for the filter should be.</t>
+  </si>
+  <si>
+    <t>CodeSystem.property</t>
+  </si>
+  <si>
+    <t>Additional information supplied about each concept</t>
+  </si>
+  <si>
+    <t>A property defines an additional slot through which additional information can be provided about a concept.</t>
+  </si>
+  <si>
+    <t>CodeSystem.property.id</t>
+  </si>
+  <si>
+    <t>CodeSystem.property.extension</t>
+  </si>
+  <si>
+    <t>CodeSystem.property.extension:property</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.property|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for CodeSystem.filter.operator from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.filter.operator` is mapped to FHIR R4 element `CodeSystem.filter.operator`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.filter.operator.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
-    <t>CodeSystem.filter.value</t>
-  </si>
-  <si>
-    <t>What to use for the value</t>
-  </si>
-  <si>
-    <t>A description of what the value for the filter should be.</t>
-  </si>
-  <si>
-    <t>CodeSystem.property</t>
-  </si>
-  <si>
-    <t>Additional information supplied about each concept</t>
-  </si>
-  <si>
-    <t>A property defines an additional slot through which additional information can be provided about a concept.</t>
-  </si>
-  <si>
-    <t>CodeSystem.property.id</t>
-  </si>
-  <si>
-    <t>CodeSystem.property.extension</t>
+    <t>Cross-version extension for CodeSystem.property from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.property` has is mapped to FHIR R4 element `CodeSystem.property`, but has no comparisons.</t>
   </si>
   <si>
     <t>CodeSystem.property.modifierExtension</t>
@@ -1348,6 +1337,23 @@
     <t>CodeSystem.concept.extension</t>
   </si>
   <si>
+    <t>CodeSystem.concept.extension:concept</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.concept|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.concept from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.concept` has is mapped to FHIR R4 element `CodeSystem.concept`, but has no comparisons.
+Note available implied context: `CodeSystem.concept.concept` because `CodeSystem.concept.concept` is defined as a content reference to `CodeSystem.concept`.</t>
+  </si>
+  <si>
     <t>CodeSystem.concept.modifierExtension</t>
   </si>
   <si>
@@ -1399,23 +1405,10 @@
     <t>CodeSystem.concept.designation.extension</t>
   </si>
   <si>
-    <t>CodeSystem.concept.designation.extension:additionalUse</t>
-  </si>
-  <si>
-    <t>additionalUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.concept.designation.additionalUse|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.concept.designation.additionalUse from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Additional codes that detail how this designation would be used, if there is more than one use.</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.concept.designation.additionalUse` is will have a context of CodeSystem.concept.designation based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>CodeSystem.concept.designation.modifierExtension</t>
@@ -1817,7 +1810,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN86"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1826,7 +1819,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.51953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.72265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.72265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1836,7 +1829,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.33203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -7154,7 +7147,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7176,14 +7169,12 @@
         <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>367</v>
+        <v>131</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7220,19 +7211,17 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7247,7 +7236,7 @@
         <v>136</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7261,14 +7250,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="D48" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7281,26 +7272,24 @@
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7348,7 +7337,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7357,13 +7346,13 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7377,42 +7366,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7460,22 +7453,22 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7500,7 +7493,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>86</v>
@@ -7515,7 +7508,7 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>379</v>
@@ -7575,7 +7568,7 @@
         <v>378</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>86</v>
@@ -7612,10 +7605,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7627,7 +7620,7 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>382</v>
@@ -7660,13 +7653,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7687,10 +7680,10 @@
         <v>381</v>
       </c>
       <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
@@ -7713,10 +7706,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7724,10 +7717,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7736,16 +7729,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7772,13 +7765,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7796,19 +7789,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7839,7 +7832,7 @@
         <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7848,16 +7841,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>132</v>
+        <v>391</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7896,29 +7889,31 @@
         <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7935,20 +7930,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -7960,20 +7953,18 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>393</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>394</v>
       </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8022,7 +8013,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8031,10 +8022,10 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -8080,10 +8071,10 @@
         <v>227</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8134,7 +8125,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8149,7 +8140,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8163,10 +8154,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8174,10 +8165,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8186,16 +8177,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>399</v>
+        <v>131</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>400</v>
+        <v>132</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8234,31 +8225,29 @@
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8275,12 +8264,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8298,18 +8289,20 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8358,7 +8351,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8367,10 +8360,10 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8387,42 +8380,46 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8470,22 +8467,22 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>365</v>
+        <v>84</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8499,21 +8496,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8522,20 +8519,18 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8584,22 +8579,22 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8620,39 +8615,35 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8700,22 +8691,22 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8729,10 +8720,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8740,7 +8731,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>86</v>
@@ -8755,13 +8746,13 @@
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8812,10 +8803,10 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>86</v>
@@ -8841,10 +8832,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8852,7 +8843,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>86</v>
@@ -8867,13 +8858,13 @@
         <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8900,13 +8891,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8924,10 +8915,10 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>86</v>
@@ -8953,10 +8944,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8967,7 +8958,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8976,18 +8967,20 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>227</v>
+        <v>357</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9036,13 +9029,13 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
@@ -9065,10 +9058,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9076,7 +9069,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>86</v>
@@ -9088,16 +9081,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>417</v>
+        <v>362</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>418</v>
+        <v>363</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9124,13 +9117,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9148,10 +9141,10 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>86</v>
@@ -9160,10 +9153,10 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9177,10 +9170,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9203,17 +9196,15 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>357</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>422</v>
+        <v>131</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9250,19 +9241,17 @@
         <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC65" s="2"/>
       <c r="AD65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9274,7 +9263,7 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -9291,12 +9280,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9305,7 +9296,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9317,15 +9308,17 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>227</v>
+        <v>425</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>362</v>
+        <v>426</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9374,22 +9367,22 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9403,14 +9396,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>205</v>
+        <v>374</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9423,24 +9416,26 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9488,7 +9483,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9503,7 +9498,7 @@
         <v>136</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>365</v>
+        <v>84</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9517,46 +9512,42 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9604,22 +9595,22 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9633,10 +9624,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9644,7 +9635,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>86</v>
@@ -9659,13 +9650,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9716,10 +9707,10 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>86</v>
@@ -9745,10 +9736,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9774,10 +9765,10 @@
         <v>227</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9828,7 +9819,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9857,10 +9848,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9871,7 +9862,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
@@ -9883,16 +9874,20 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>227</v>
+        <v>357</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
       </c>
@@ -9940,13 +9935,13 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>77</v>
@@ -9969,10 +9964,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9983,7 +9978,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -9995,20 +9990,16 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>357</v>
+        <v>227</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>438</v>
+        <v>362</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10056,22 +10047,22 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10085,21 +10076,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -10111,15 +10102,17 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>362</v>
+        <v>445</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10168,19 +10161,19 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>365</v>
@@ -10197,14 +10190,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10217,22 +10210,26 @@
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>131</v>
+        <v>375</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10268,17 +10265,19 @@
         <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC74" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10293,7 +10292,7 @@
         <v>136</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10307,14 +10306,12 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10323,7 +10320,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10335,16 +10332,16 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>446</v>
+        <v>106</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10370,13 +10367,13 @@
         <v>77</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>77</v>
@@ -10394,19 +10391,19 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>369</v>
+        <v>448</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -10423,46 +10420,44 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>130</v>
+        <v>453</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10486,13 +10481,13 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>77</v>
+        <v>457</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -10510,22 +10505,22 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10539,10 +10534,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10550,7 +10545,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>86</v>
@@ -10565,17 +10560,15 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10600,13 +10593,13 @@
         <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>77</v>
@@ -10624,10 +10617,10 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>86</v>
@@ -10653,10 +10646,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10667,7 +10660,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -10679,17 +10672,15 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>456</v>
+        <v>357</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10714,13 +10705,13 @@
         <v>77</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>460</v>
+        <v>77</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>461</v>
+        <v>77</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>77</v>
@@ -10738,13 +10729,13 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
@@ -10767,10 +10758,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10778,7 +10769,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>86</v>
@@ -10796,10 +10787,10 @@
         <v>227</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>463</v>
+        <v>362</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>464</v>
+        <v>363</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10850,10 +10841,10 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>462</v>
+        <v>364</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>86</v>
@@ -10862,10 +10853,10 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -10879,14 +10870,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -10905,15 +10896,17 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>357</v>
+        <v>130</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10962,7 +10955,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>465</v>
+        <v>367</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10974,10 +10967,10 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -10991,42 +10984,46 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11074,22 +11071,22 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>365</v>
+        <v>84</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11103,21 +11100,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
@@ -11129,17 +11126,15 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>367</v>
+        <v>469</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -11188,22 +11183,22 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>369</v>
+        <v>468</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -11217,46 +11212,42 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>372</v>
+        <v>473</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11304,22 +11295,22 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>374</v>
+        <v>471</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -11333,10 +11324,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11344,10 +11335,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
@@ -11359,13 +11350,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11416,13 +11407,13 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
@@ -11440,230 +11431,6 @@
         <v>77</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN86" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-CodeSystem.xlsx
+++ b/StructureDefinition-profile-CodeSystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7604903-06:00</t>
+    <t>2026-02-20T11:59:20.7568392-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CodeSystem|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CodeSystem</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -440,218 +440,224 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>CodeSystem.extension:approvalDate</t>
+  </si>
+  <si>
+    <t>approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-approvalDate}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.approvalDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the artifact content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.approvalDate`: `http://hl7.org/fhir/StructureDefinition/artifact-approvalDate`.
+Element `CodeSystem.approvalDate` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:author</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-author}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.author from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization primarily involved in the creation and maintenance of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.author`: `http://hl7.org/fhir/StructureDefinition/artifact-author`.
+Element `CodeSystem.author` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `CodeSystem.copyrightLabel` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:editor</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-editor}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.editor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization primarily responsible for internal coherence of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.editor`: `http://hl7.org/fhir/StructureDefinition/artifact-editor`.
+Element `CodeSystem.editor` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:effectivePeriod</t>
+  </si>
+  <si>
+    <t>effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.effectivePeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The period during which the artifact content was or is planned to be in active use.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.effectivePeriod`: `http://hl7.org/fhir/StructureDefinition/artifact-effectivePeriod`.
+Element `CodeSystem.effectivePeriod` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:endorser</t>
+  </si>
+  <si>
+    <t>endorser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-endorser}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.endorser from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization responsible for officially endorsing the artifact for use in some setting.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.endorser`: `http://hl7.org/fhir/StructureDefinition/artifact-endorser`.
+Element `CodeSystem.endorser` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:lastReviewDate</t>
+  </si>
+  <si>
+    <t>lastReviewDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-lastReviewDate}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.lastReviewDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.lastReviewDate`: `http://hl7.org/fhir/StructureDefinition/artifact-lastReviewDate`.
+Element `CodeSystem.lastReviewDate` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:relatedArtifact</t>
+  </si>
+  <si>
+    <t>relatedArtifact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-relatedArtifact}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.relatedArtifact from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Related artifacts such as additional documentation, justification, dependencies, bibliographic references, and predecessor and successor artifacts.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.relatedArtifact`: `http://hl7.org/fhir/StructureDefinition/artifact-relatedArtifact`.
+Element `CodeSystem.relatedArtifact` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:reviewer</t>
+  </si>
+  <si>
+    <t>reviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-reviewer}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.reviewer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An individual or organization primarily responsible for review of some aspect of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.reviewer`: `http://hl7.org/fhir/StructureDefinition/artifact-reviewer`.
+Element `CodeSystem.reviewer` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
+    <t>CodeSystem.extension:topic</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-topic}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.topic from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Descriptive topics related to the content of the artifact. Topics provide a high-level categorization of the artifact that can be useful for filtering and searching.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.topic`: `http://hl7.org/fhir/StructureDefinition/artifact-topic`.
+Element `CodeSystem.topic` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+  </si>
+  <si>
     <t>CodeSystem.extension:versionAlgorithm</t>
   </si>
   <si>
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
     <t>Cross-version extension for CodeSystem.versionAlgorithm[x] from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Indicates the mechanism used to compare versions to determine which CodeSystem is more current.</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.versionAlgorithm[x]` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.copyrightLabel|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.copyrightLabel` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:approvalDate</t>
-  </si>
-  <si>
-    <t>approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.approvalDate|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.approvalDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.approvalDate` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:lastReviewDate</t>
-  </si>
-  <si>
-    <t>lastReviewDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.lastReviewDate|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.lastReviewDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.lastReviewDate` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:effectivePeriod</t>
-  </si>
-  <si>
-    <t>effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.effectivePeriod|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.effectivePeriod from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The period during which the CodeSystem content was or is planned to be in active use.</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.effectivePeriod` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:topic</t>
-  </si>
-  <si>
-    <t>topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.topic|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.topic from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Descriptions related to the content of the CodeSystem. Topics provide a high-level categorization as well as keywords for the CodeSystem that can be useful for filtering and searching.</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.topic` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:author</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.author|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.author from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individiual or organization primarily involved in the creation and maintenance of the CodeSystem.</t>
-  </si>
-  <si>
-    <t>Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `ContactDetail`:0..* -&gt; basic: `Reference(http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Organization)`:0..1).
-Element `CodeSystem.author` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:editor</t>
-  </si>
-  <si>
-    <t>editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.editor|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.editor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization primarily responsible for internal coherence of the CodeSystem.</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.editor` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:reviewer</t>
-  </si>
-  <si>
-    <t>reviewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.reviewer|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.reviewer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization asserted by the publisher to be primarily responsible for review of some aspect of the CodeSystem.</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.reviewer` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:endorser</t>
-  </si>
-  <si>
-    <t>endorser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.endorser|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.endorser from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization asserted by the publisher to be responsible for officially endorsing the CodeSystem for use in some setting.</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.endorser` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:relatedArtifact</t>
-  </si>
-  <si>
-    <t>relatedArtifact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.relatedArtifact|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.relatedArtifact from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Related artifacts such as additional documentation, justification, dependencies, bibliographic references, and predecessor and successor artifacts.</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.relatedArtifact` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `CodeSystem.versionAlgorithm[x]` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
   </si>
   <si>
     <t>CodeSystem.modifierExtension</t>
@@ -1174,7 +1180,7 @@
     <t>filter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.filter|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.filter}
 </t>
   </si>
   <si>
@@ -1182,6 +1188,10 @@
   </si>
   <si>
     <t>Element `CodeSystem.filter` has is mapped to FHIR R4 element `CodeSystem.filter`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>CodeSystem.filter.modifierExtension</t>
@@ -1264,7 +1274,7 @@
     <t>property</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.property|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.property}
 </t>
   </si>
   <si>
@@ -1343,7 +1353,7 @@
     <t>concept</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.concept|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.concept}
 </t>
   </si>
   <si>
@@ -1829,7 +1839,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.1015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2984,7 +2994,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>136</v>
@@ -3004,13 +3014,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
@@ -3020,7 +3030,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -3032,16 +3042,16 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3100,7 +3110,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>136</v>
@@ -3120,13 +3130,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
@@ -3148,16 +3158,16 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3216,7 +3226,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>136</v>
@@ -3236,13 +3246,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -3252,7 +3262,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3264,16 +3274,16 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3332,7 +3342,7 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>136</v>
@@ -3352,13 +3362,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
@@ -3380,16 +3390,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3448,7 +3458,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>136</v>
@@ -3468,13 +3478,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3496,16 +3506,16 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3564,7 +3574,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>136</v>
@@ -3584,13 +3594,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>77</v>
@@ -3600,7 +3610,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3612,16 +3622,16 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3680,7 +3690,7 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>136</v>
@@ -3700,13 +3710,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>77</v>
@@ -3728,16 +3738,16 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3796,7 +3806,7 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>136</v>
@@ -3816,13 +3826,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -3844,16 +3854,16 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3912,7 +3922,7 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>136</v>
@@ -3932,13 +3942,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>77</v>
@@ -3960,16 +3970,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4028,7 +4038,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>136</v>
@@ -4048,13 +4058,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -4064,7 +4074,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -4076,16 +4086,16 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4144,7 +4154,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>136</v>
@@ -4164,14 +4174,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4193,16 +4203,16 @@
         <v>130</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4251,7 +4261,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4280,10 +4290,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4309,16 +4319,16 @@
         <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4367,7 +4377,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4385,10 +4395,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4396,10 +4406,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4422,19 +4432,19 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4483,7 +4493,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4501,21 +4511,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4538,16 +4548,16 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4597,7 +4607,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4615,10 +4625,10 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4626,10 +4636,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4652,19 +4662,19 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4713,7 +4723,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4722,7 +4732,7 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
@@ -4742,10 +4752,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4768,16 +4778,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4827,7 +4837,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4845,7 +4855,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4856,10 +4866,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4885,13 +4895,13 @@
         <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4917,14 +4927,14 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4941,7 +4951,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -4959,10 +4969,10 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4970,10 +4980,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4996,19 +5006,19 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -5057,7 +5067,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5075,10 +5085,10 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5086,14 +5096,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5112,16 +5122,16 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5171,7 +5181,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5189,10 +5199,10 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5200,10 +5210,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5226,19 +5236,19 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5287,7 +5297,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5305,10 +5315,10 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5316,10 +5326,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5342,16 +5352,16 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5401,7 +5411,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5419,7 +5429,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5430,14 +5440,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5456,16 +5466,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5515,7 +5525,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5533,7 +5543,7 @@
         <v>84</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5544,10 +5554,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5570,19 +5580,19 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5631,7 +5641,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5649,7 +5659,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5660,10 +5670,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5686,16 +5696,16 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5721,14 +5731,14 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5745,7 +5755,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5763,7 +5773,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5774,10 +5784,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5800,16 +5810,16 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5859,7 +5869,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5877,25 +5887,25 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM35" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="AN35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5914,19 +5924,19 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5975,7 +5985,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5993,21 +6003,21 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6030,16 +6040,16 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6089,7 +6099,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6118,10 +6128,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6144,16 +6154,16 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6203,7 +6213,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6232,10 +6242,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6261,13 +6271,13 @@
         <v>106</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6293,14 +6303,14 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6317,7 +6327,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6346,14 +6356,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6372,16 +6382,16 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6431,7 +6441,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6460,10 +6470,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6486,16 +6496,16 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6545,7 +6555,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6574,10 +6584,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6603,10 +6613,10 @@
         <v>106</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6633,14 +6643,14 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6657,7 +6667,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>86</v>
@@ -6686,10 +6696,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6712,16 +6722,16 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6771,7 +6781,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6800,10 +6810,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6826,16 +6836,16 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6885,7 +6895,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6914,10 +6924,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6940,16 +6950,16 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6999,7 +7009,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7028,10 +7038,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7054,13 +7064,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7111,7 +7121,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7126,7 +7136,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7140,10 +7150,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7221,7 +7231,7 @@
         <v>134</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7250,13 +7260,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C48" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -7278,16 +7288,16 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7337,7 +7347,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7346,7 +7356,7 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>143</v>
+        <v>372</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>136</v>
@@ -7401,10 +7411,10 @@
         <v>376</v>
       </c>
       <c r="N49" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7620,7 +7630,7 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>382</v>
@@ -7765,7 +7775,7 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y52" t="s" s="2">
         <v>387</v>
@@ -7844,7 +7854,7 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>390</v>
@@ -7956,7 +7966,7 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>393</v>
@@ -8068,13 +8078,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8125,7 +8135,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8140,7 +8150,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8235,7 +8245,7 @@
         <v>134</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8351,7 +8361,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8360,7 +8370,7 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>143</v>
+        <v>372</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>136</v>
@@ -8415,10 +8425,10 @@
         <v>376</v>
       </c>
       <c r="N58" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O58" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8746,7 +8756,7 @@
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>410</v>
@@ -8891,7 +8901,7 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y62" t="s" s="2">
         <v>415</v>
@@ -8970,7 +8980,7 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>418</v>
@@ -9084,13 +9094,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9141,7 +9151,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9156,7 +9166,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9251,7 +9261,7 @@
         <v>134</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9367,7 +9377,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9376,7 +9386,7 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>143</v>
+        <v>372</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>136</v>
@@ -9431,10 +9441,10 @@
         <v>376</v>
       </c>
       <c r="N67" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O67" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9650,7 +9660,7 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>433</v>
@@ -9762,7 +9772,7 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>436</v>
@@ -9874,7 +9884,7 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>439</v>
@@ -9990,13 +10000,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10047,7 +10057,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10062,7 +10072,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10083,7 +10093,7 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10111,7 +10121,7 @@
         <v>446</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10161,7 +10171,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10176,7 +10186,7 @@
         <v>136</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10225,10 +10235,10 @@
         <v>376</v>
       </c>
       <c r="N74" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>77</v>
@@ -10481,7 +10491,7 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y76" t="s" s="2">
         <v>457</v>
@@ -10560,7 +10570,7 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>460</v>
@@ -10672,7 +10682,7 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>463</v>
@@ -10784,13 +10794,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10841,7 +10851,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10856,7 +10866,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -10877,7 +10887,7 @@
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -10905,7 +10915,7 @@
         <v>446</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10955,7 +10965,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10970,7 +10980,7 @@
         <v>136</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11019,10 +11029,10 @@
         <v>376</v>
       </c>
       <c r="N81" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O81" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-profile-CodeSystem.xlsx
+++ b/StructureDefinition-profile-CodeSystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7568392-06:00</t>
+    <t>2026-02-21T13:36:54.1615057-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CodeSystem</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CodeSystem|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -416,21 +416,21 @@
     <t>CodeSystem.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -440,231 +440,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>CodeSystem.extension:approvalDate</t>
-  </si>
-  <si>
-    <t>approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-approvalDate}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.approvalDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the artifact content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.approvalDate`: `http://hl7.org/fhir/StructureDefinition/artifact-approvalDate`.
-Element `CodeSystem.approvalDate` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:author</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-author}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.author from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization primarily involved in the creation and maintenance of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.author`: `http://hl7.org/fhir/StructureDefinition/artifact-author`.
-Element `CodeSystem.author` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `CodeSystem.copyrightLabel` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:editor</t>
-  </si>
-  <si>
-    <t>editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-editor}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.editor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization primarily responsible for internal coherence of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.editor`: `http://hl7.org/fhir/StructureDefinition/artifact-editor`.
-Element `CodeSystem.editor` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:effectivePeriod</t>
-  </si>
-  <si>
-    <t>effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-effectivePeriod}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.effectivePeriod from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The period during which the artifact content was or is planned to be in active use.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.effectivePeriod`: `http://hl7.org/fhir/StructureDefinition/artifact-effectivePeriod`.
-Element `CodeSystem.effectivePeriod` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:endorser</t>
-  </si>
-  <si>
-    <t>endorser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-endorser}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.endorser from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization responsible for officially endorsing the artifact for use in some setting.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.endorser`: `http://hl7.org/fhir/StructureDefinition/artifact-endorser`.
-Element `CodeSystem.endorser` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:lastReviewDate</t>
-  </si>
-  <si>
-    <t>lastReviewDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-lastReviewDate}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.lastReviewDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.lastReviewDate`: `http://hl7.org/fhir/StructureDefinition/artifact-lastReviewDate`.
-Element `CodeSystem.lastReviewDate` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:relatedArtifact</t>
-  </si>
-  <si>
-    <t>relatedArtifact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-relatedArtifact}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.relatedArtifact from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Related artifacts such as additional documentation, justification, dependencies, bibliographic references, and predecessor and successor artifacts.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.relatedArtifact`: `http://hl7.org/fhir/StructureDefinition/artifact-relatedArtifact`.
-Element `CodeSystem.relatedArtifact` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:reviewer</t>
-  </si>
-  <si>
-    <t>reviewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-reviewer}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.reviewer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>An individual or organization primarily responsible for review of some aspect of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.reviewer`: `http://hl7.org/fhir/StructureDefinition/artifact-reviewer`.
-Element `CodeSystem.reviewer` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:topic</t>
-  </si>
-  <si>
-    <t>topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-topic}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.topic from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Descriptive topics related to the content of the artifact. Topics provide a high-level categorization of the artifact that can be useful for filtering and searching.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.topic`: `http://hl7.org/fhir/StructureDefinition/artifact-topic`.
-Element `CodeSystem.topic` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `CodeSystem.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `CodeSystem.versionAlgorithm[x]` has a context of CodeSystem based on following the parent source element upwards and mapping to `CodeSystem`.</t>
-  </si>
-  <si>
     <t>CodeSystem.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -672,9 +448,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -1171,77 +944,114 @@
     <t>CodeSystem.filter.extension</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>CodeSystem.filter.extension:filter</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.filter}
+    <t>CodeSystem.filter.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>CodeSystem.filter.code</t>
+  </si>
+  <si>
+    <t>Code that identifies the filter</t>
+  </si>
+  <si>
+    <t>The code that identifies this filter when it is used as a filter in [ValueSet](http://hl7.org/fhir/R4/valueset.html#).compose.include.filter.</t>
+  </si>
+  <si>
+    <t>CodeSystem.filter.description</t>
+  </si>
+  <si>
+    <t>How or why the filter is used</t>
+  </si>
+  <si>
+    <t>A description of how or why the filter is used.</t>
+  </si>
+  <si>
+    <t>CodeSystem.filter.operator</t>
+  </si>
+  <si>
+    <t>= | is-a | descendent-of | is-not-a | regex | in | not-in | generalizes | exists</t>
+  </si>
+  <si>
+    <t>A list of operators that can be used with the filter.</t>
+  </si>
+  <si>
+    <t>The kind of operation to perform as a part of a property based filter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/filter-operator|4.0.1</t>
+  </si>
+  <si>
+    <t>CodeSystem.filter.operator.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>CodeSystem.filter.operator.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for CodeSystem.filter from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.filter` has is mapped to FHIR R4 element `CodeSystem.filter`, but has no comparisons.</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>CodeSystem.filter.operator.extension:operator</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.filter.operator|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CodeSystem.filter.operator from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.filter.operator` is mapped to FHIR R4 element `CodeSystem.filter.operator` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>CodeSystem.filter.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>CodeSystem.filter.code</t>
-  </si>
-  <si>
-    <t>Code that identifies the filter</t>
-  </si>
-  <si>
-    <t>The code that identifies this filter when it is used as a filter in [ValueSet](http://hl7.org/fhir/R4/valueset.html#).compose.include.filter.</t>
-  </si>
-  <si>
-    <t>CodeSystem.filter.description</t>
-  </si>
-  <si>
-    <t>How or why the filter is used</t>
-  </si>
-  <si>
-    <t>A description of how or why the filter is used.</t>
-  </si>
-  <si>
-    <t>CodeSystem.filter.operator</t>
-  </si>
-  <si>
-    <t>= | is-a | descendent-of | is-not-a | regex | in | not-in | generalizes | exists</t>
-  </si>
-  <si>
-    <t>A list of operators that can be used with the filter.</t>
-  </si>
-  <si>
-    <t>The kind of operation to perform as a part of a property based filter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/filter-operator|4.0.1</t>
+    <t>CodeSystem.filter.operator.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>CodeSystem.filter.value</t>
@@ -1268,157 +1078,138 @@
     <t>CodeSystem.property.extension</t>
   </si>
   <si>
-    <t>CodeSystem.property.extension:property</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.property}
+    <t>CodeSystem.property.modifierExtension</t>
+  </si>
+  <si>
+    <t>CodeSystem.property.code</t>
+  </si>
+  <si>
+    <t>Identifies the property on the concepts, and when referred to in operations</t>
+  </si>
+  <si>
+    <t>A code that is used to identify the property. The code is used internally (in CodeSystem.concept.property.code) and also externally, such as in property filters.</t>
+  </si>
+  <si>
+    <t>CodeSystem.property.uri</t>
+  </si>
+  <si>
+    <t>Formal identifier for the property</t>
+  </si>
+  <si>
+    <t>Reference to the formal meaning of the property. One possible source of meaning is the [Concept Properties](http://hl7.org/fhir/R4/codesystem-concept-properties.html) code system.</t>
+  </si>
+  <si>
+    <t>CodeSystem.property.description</t>
+  </si>
+  <si>
+    <t>Why the property is defined, and/or what it conveys</t>
+  </si>
+  <si>
+    <t>A description of the property- why it is defined, and how its value might be used.</t>
+  </si>
+  <si>
+    <t>CodeSystem.property.type</t>
+  </si>
+  <si>
+    <t>code | Coding | string | integer | boolean | dateTime | decimal</t>
+  </si>
+  <si>
+    <t>The type of the property value. Properties of type "code" contain a code defined by the code system (e.g. a reference to another defined concept).</t>
+  </si>
+  <si>
+    <t>The type of a property value.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/concept-property-type|4.0.1</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept</t>
+  </si>
+  <si>
+    <t>Concepts in the code system</t>
+  </si>
+  <si>
+    <t>Concepts that are in the code system. The concept definitions are inherently hierarchical, but the definitions must be consulted to determine what the meanings of the hierarchical relationships are.</t>
+  </si>
+  <si>
+    <t>If this is empty, it means that the code system resource does not represent the content of the code system.</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.id</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.extension</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.modifierExtension</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.code</t>
+  </si>
+  <si>
+    <t>Code that identifies concept</t>
+  </si>
+  <si>
+    <t>A code - a text symbol - that uniquely identifies the concept within the code system.</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.display</t>
+  </si>
+  <si>
+    <t>Text to display to the user</t>
+  </si>
+  <si>
+    <t>A human readable string that is the recommended default way to present this concept to a user.</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.definition</t>
+  </si>
+  <si>
+    <t>Formal definition</t>
+  </si>
+  <si>
+    <t>The formal definition of the concept. The code system resource does not make formal definitions required, because of the prevalence of legacy systems. However, they are highly recommended, as without them there is no formal meaning associated with the concept.</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.designation</t>
+  </si>
+  <si>
+    <t>Additional representations for the concept</t>
+  </si>
+  <si>
+    <t>Additional representations for the concept - other languages, aliases, specialized purposes, used for particular purposes, etc.</t>
+  </si>
+  <si>
+    <t>Concepts have both a ```display``` and an array of ```designation```. The display is equivalent to a special designation with an implied ```designation.use``` of "primary code" and a language equal to the [Resource Language](http://hl7.org/fhir/R4/resource.html#language).</t>
+  </si>
+  <si>
+    <t>Many concept definition systems support multiple representations, in multiple languages, and for multiple purposes.</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.designation.id</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.designation.extension</t>
+  </si>
+  <si>
+    <t>CodeSystem.concept.designation.extension:additionalUse</t>
+  </si>
+  <si>
+    <t>additionalUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.concept.designation.additionalUse|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for CodeSystem.property from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.property` has is mapped to FHIR R4 element `CodeSystem.property`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>CodeSystem.property.modifierExtension</t>
-  </si>
-  <si>
-    <t>CodeSystem.property.code</t>
-  </si>
-  <si>
-    <t>Identifies the property on the concepts, and when referred to in operations</t>
-  </si>
-  <si>
-    <t>A code that is used to identify the property. The code is used internally (in CodeSystem.concept.property.code) and also externally, such as in property filters.</t>
-  </si>
-  <si>
-    <t>CodeSystem.property.uri</t>
-  </si>
-  <si>
-    <t>Formal identifier for the property</t>
-  </si>
-  <si>
-    <t>Reference to the formal meaning of the property. One possible source of meaning is the [Concept Properties](http://hl7.org/fhir/R4/codesystem-concept-properties.html) code system.</t>
-  </si>
-  <si>
-    <t>CodeSystem.property.description</t>
-  </si>
-  <si>
-    <t>Why the property is defined, and/or what it conveys</t>
-  </si>
-  <si>
-    <t>A description of the property- why it is defined, and how its value might be used.</t>
-  </si>
-  <si>
-    <t>CodeSystem.property.type</t>
-  </si>
-  <si>
-    <t>code | Coding | string | integer | boolean | dateTime | decimal</t>
-  </si>
-  <si>
-    <t>The type of the property value. Properties of type "code" contain a code defined by the code system (e.g. a reference to another defined concept).</t>
-  </si>
-  <si>
-    <t>The type of a property value.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/concept-property-type|4.0.1</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept</t>
-  </si>
-  <si>
-    <t>Concepts in the code system</t>
-  </si>
-  <si>
-    <t>Concepts that are in the code system. The concept definitions are inherently hierarchical, but the definitions must be consulted to determine what the meanings of the hierarchical relationships are.</t>
-  </si>
-  <si>
-    <t>If this is empty, it means that the code system resource does not represent the content of the code system.</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.id</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.extension</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.extension:concept</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CodeSystem.concept}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for CodeSystem.concept from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CodeSystem.concept` has is mapped to FHIR R4 element `CodeSystem.concept`, but has no comparisons.
-Note available implied context: `CodeSystem.concept.concept` because `CodeSystem.concept.concept` is defined as a content reference to `CodeSystem.concept`.</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.modifierExtension</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.code</t>
-  </si>
-  <si>
-    <t>Code that identifies concept</t>
-  </si>
-  <si>
-    <t>A code - a text symbol - that uniquely identifies the concept within the code system.</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.display</t>
-  </si>
-  <si>
-    <t>Text to display to the user</t>
-  </si>
-  <si>
-    <t>A human readable string that is the recommended default way to present this concept to a user.</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.definition</t>
-  </si>
-  <si>
-    <t>Formal definition</t>
-  </si>
-  <si>
-    <t>The formal definition of the concept. The code system resource does not make formal definitions required, because of the prevalence of legacy systems. However, they are highly recommended, as without them there is no formal meaning associated with the concept.</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.designation</t>
-  </si>
-  <si>
-    <t>Additional representations for the concept</t>
-  </si>
-  <si>
-    <t>Additional representations for the concept - other languages, aliases, specialized purposes, used for particular purposes, etc.</t>
-  </si>
-  <si>
-    <t>Concepts have both a ```display``` and an array of ```designation```. The display is equivalent to a special designation with an implied ```designation.use``` of "primary code" and a language equal to the [Resource Language](http://hl7.org/fhir/R4/resource.html#language).</t>
-  </si>
-  <si>
-    <t>Many concept definition systems support multiple representations, in multiple languages, and for multiple purposes.</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.designation.id</t>
-  </si>
-  <si>
-    <t>CodeSystem.concept.designation.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Cross-version extension for CodeSystem.concept.designation.additionalUse from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Additional codes that detail how this designation would be used, if there is more than one use.</t>
+  </si>
+  <si>
+    <t>Element `CodeSystem.concept.designation.additionalUse` has a context of CodeSystem.concept.designation based on following the parent source element upwards and mapping to `CodeSystem`.
+Note available implied context: `CodeSystem.concept.concept.designation` because `CodeSystem.concept.concept` is defined via a content reference to `CodeSystem.concept`.</t>
   </si>
   <si>
     <t>CodeSystem.concept.designation.modifierExtension</t>
@@ -1820,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN84"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1829,9 +1620,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.72265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.51953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.72265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.0078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1839,7 +1630,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="106.33203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2795,7 +2586,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2814,15 +2605,17 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2859,14 +2652,16 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>135</v>
@@ -2884,7 +2679,7 @@
         <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2901,43 +2696,43 @@
         <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2985,7 +2780,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3000,7 +2795,7 @@
         <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -3014,14 +2809,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3030,7 +2823,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -3039,21 +2832,23 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3101,28 +2896,28 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -3133,11 +2928,9 @@
         <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3146,7 +2939,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3155,21 +2948,23 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3217,7 +3012,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3229,31 +3024,29 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3262,7 +3055,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3271,19 +3064,19 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3333,28 +3126,28 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3362,14 +3155,12 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3387,21 +3178,23 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3449,19 +3242,19 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3478,14 +3271,12 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3494,7 +3285,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3503,19 +3294,19 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3565,25 +3356,25 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3594,20 +3385,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>86</v>
@@ -3616,13 +3405,13 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>176</v>
@@ -3657,13 +3446,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3681,28 +3470,28 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3710,14 +3499,12 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3726,7 +3513,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3735,21 +3522,23 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3797,28 +3586,28 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3826,23 +3615,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3851,19 +3638,19 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3913,28 +3700,28 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3942,14 +3729,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3958,7 +3743,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3967,21 +3752,23 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4029,28 +3816,28 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4058,14 +3845,12 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4074,7 +3859,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -4083,19 +3868,19 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4145,7 +3930,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4157,13 +3942,13 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4174,46 +3959,44 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4261,25 +4044,25 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4290,10 +4073,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4304,7 +4087,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4316,19 +4099,19 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4377,13 +4160,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4395,10 +4178,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4406,10 +4189,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4432,20 +4215,18 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4469,13 +4250,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4493,7 +4274,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4511,21 +4292,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4545,19 +4326,19 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4607,7 +4388,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4625,25 +4406,25 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4659,22 +4440,22 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4723,7 +4504,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4732,7 +4513,7 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
@@ -4741,21 +4522,21 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4778,16 +4559,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4837,7 +4618,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4855,7 +4636,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4866,10 +4647,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4877,7 +4658,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -4886,22 +4667,22 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4927,13 +4708,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4951,10 +4732,10 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>86</v>
@@ -4969,10 +4750,10 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4980,10 +4761,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5006,20 +4787,18 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>253</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5043,13 +4822,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5067,7 +4846,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5085,10 +4864,10 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5096,14 +4875,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5122,16 +4901,16 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5181,7 +4960,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5199,10 +4978,10 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5210,10 +4989,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5236,20 +5015,18 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O30" t="s" s="2">
         <v>271</v>
       </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5297,7 +5074,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5315,10 +5092,10 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5326,10 +5103,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5337,10 +5114,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5352,17 +5129,15 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5387,13 +5162,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5411,13 +5186,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5429,7 +5204,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5440,14 +5215,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5463,19 +5238,19 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5525,7 +5300,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5540,10 +5315,10 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5554,10 +5329,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5568,7 +5343,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5580,20 +5355,18 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5641,13 +5414,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5659,7 +5432,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5670,10 +5443,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5696,16 +5469,16 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5731,13 +5504,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5755,7 +5528,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5773,7 +5546,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5784,10 +5557,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5810,17 +5583,15 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>158</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5869,7 +5640,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5881,38 +5652,38 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5924,20 +5695,18 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>282</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5985,73 +5754,75 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>253</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6099,22 +5870,22 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6128,10 +5899,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6139,7 +5910,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>86</v>
@@ -6154,17 +5925,15 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>321</v>
+        <v>106</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6213,10 +5982,10 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>86</v>
@@ -6242,10 +6011,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6268,17 +6037,15 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6303,13 +6070,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6327,7 +6094,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6356,21 +6123,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6382,17 +6149,15 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>253</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6417,13 +6182,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6441,13 +6206,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6470,10 +6235,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6493,20 +6258,18 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6555,7 +6318,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6567,7 +6330,7 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6584,10 +6347,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6598,7 +6361,7 @@
         <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6607,16 +6370,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6643,43 +6406,41 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6696,21 +6457,23 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6719,19 +6482,19 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6781,19 +6544,19 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6810,10 +6573,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6833,20 +6596,18 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>351</v>
+        <v>158</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6895,7 +6656,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6907,7 +6668,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6924,10 +6685,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6935,10 +6696,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6950,17 +6711,15 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>158</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7009,13 +6768,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -7038,10 +6797,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7052,7 +6811,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7061,16 +6820,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7121,22 +6880,22 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7150,10 +6909,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7164,7 +6923,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7176,13 +6935,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>131</v>
+        <v>293</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7221,32 +6980,34 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>366</v>
+        <v>295</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7260,16 +7021,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7288,16 +7047,16 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>369</v>
+        <v>131</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>370</v>
+        <v>132</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7347,7 +7106,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7356,13 +7115,13 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7376,14 +7135,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7402,19 +7161,19 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7463,7 +7222,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7492,10 +7251,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7521,10 +7280,10 @@
         <v>106</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7575,7 +7334,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
@@ -7604,10 +7363,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7630,13 +7389,13 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7687,7 +7446,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7716,10 +7475,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7727,10 +7486,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7742,13 +7501,13 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7775,13 +7534,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7799,13 +7558,13 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
@@ -7828,10 +7587,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7854,13 +7613,13 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7887,13 +7646,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7911,7 +7670,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7940,10 +7699,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7963,18 +7722,20 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>356</v>
+        <v>288</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8023,7 +7784,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8052,10 +7813,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8078,13 +7839,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8135,7 +7896,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8150,7 +7911,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8164,14 +7925,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8190,15 +7951,17 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8235,17 +7998,19 @@
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8260,7 +8025,7 @@
         <v>136</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8274,16 +8039,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8296,24 +8059,26 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>399</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>400</v>
+        <v>302</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>394</v>
+        <v>303</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8361,7 +8126,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8370,13 +8135,13 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8390,46 +8155,42 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8477,22 +8238,22 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8506,10 +8267,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8517,7 +8278,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>86</v>
@@ -8529,16 +8290,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8589,10 +8350,10 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>86</v>
@@ -8618,10 +8379,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8641,16 +8402,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8701,7 +8462,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8730,10 +8491,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8744,7 +8505,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8753,19 +8514,23 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8813,13 +8578,13 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
@@ -8842,10 +8607,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8853,7 +8618,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>86</v>
@@ -8865,16 +8630,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>413</v>
+        <v>293</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>414</v>
+        <v>294</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8901,13 +8666,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8925,10 +8690,10 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>412</v>
+        <v>295</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>86</v>
@@ -8937,10 +8702,10 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8954,10 +8719,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8980,17 +8745,15 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>356</v>
+        <v>131</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>418</v>
+        <v>320</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9027,19 +8790,17 @@
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>417</v>
+        <v>299</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9051,7 +8812,7 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
@@ -9068,12 +8829,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9082,7 +8845,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9094,15 +8857,17 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>226</v>
+        <v>381</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9151,22 +8916,22 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9180,14 +8945,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9200,22 +8965,26 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>131</v>
+        <v>302</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9251,17 +9020,19 @@
         <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC65" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9276,7 +9047,7 @@
         <v>136</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9290,14 +9061,12 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9306,7 +9075,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9318,16 +9087,16 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>425</v>
+        <v>106</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9353,13 +9122,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9377,19 +9146,19 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9406,46 +9175,44 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>130</v>
+        <v>391</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9469,13 +9236,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9493,22 +9260,22 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9522,10 +9289,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9548,13 +9315,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9605,7 +9372,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>86</v>
@@ -9634,10 +9401,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9648,7 +9415,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -9660,13 +9427,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9717,13 +9484,13 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
@@ -9746,10 +9513,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9772,13 +9539,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>436</v>
+        <v>293</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>437</v>
+        <v>294</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9829,7 +9596,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>435</v>
+        <v>295</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9841,10 +9608,10 @@
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9858,14 +9625,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9884,20 +9651,18 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>356</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>439</v>
+        <v>132</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>440</v>
+        <v>298</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
       </c>
@@ -9945,7 +9710,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>438</v>
+        <v>299</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9957,10 +9722,10 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -9974,42 +9739,46 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>361</v>
+        <v>302</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10057,22 +9826,22 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10086,21 +9855,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -10112,17 +9881,15 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10171,22 +9938,22 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10200,46 +9967,42 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10287,22 +10050,22 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10316,10 +10079,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10330,7 +10093,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10342,17 +10105,15 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10377,13 +10138,13 @@
         <v>77</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>77</v>
@@ -10401,13 +10162,13 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
@@ -10425,1022 +10186,6 @@
         <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN84" t="s" s="2">
         <v>77</v>
       </c>
     </row>
